--- a/src/test/java/com/cham/2025년 중구 구청장 업무추진비 업로드 (1).xlsx
+++ b/src/test/java/com/cham/2025년 중구 구청장 업무추진비 업로드 (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlglx\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1600,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8262,36 +8262,6 @@
         <v>351</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="17.25" thickBot="1">
-      <c r="E152" s="4"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="2"/>
-    </row>
-    <row r="153" spans="1:14" ht="17.25" thickBot="1">
-      <c r="E153" s="4"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="2"/>
-    </row>
-    <row r="154" spans="1:14" ht="17.25" thickBot="1">
-      <c r="E154" s="4"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="2"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:N151"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/test/java/com/cham/2025년 중구 구청장 업무추진비 업로드 (1).xlsx
+++ b/src/test/java/com/cham/2025년 중구 구청장 업무추진비 업로드 (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlglx\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulim\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="372">
   <si>
     <t>사용자</t>
   </si>
@@ -414,63 +414,21 @@
     <t>종서산약초</t>
   </si>
   <si>
-    <t>중구 대흥로 131</t>
-  </si>
-  <si>
-    <t>중구 중교로 27</t>
-  </si>
-  <si>
-    <t>중구 동서대로1322번길 43</t>
-  </si>
-  <si>
-    <t>중구 계룡로 922</t>
-  </si>
-  <si>
     <t>중구 탑골로18번길 3</t>
   </si>
   <si>
     <t>중구 대흥로121번길 42</t>
   </si>
   <si>
-    <t>중구 중교로 40</t>
-  </si>
-  <si>
-    <t>중구 중앙로112번길 37</t>
-  </si>
-  <si>
-    <t>정읍 북남산 20-5</t>
-  </si>
-  <si>
-    <t>중구 중앙로138번길 48</t>
-  </si>
-  <si>
     <t>중구 대흥로165번길 40</t>
   </si>
   <si>
-    <t>중구 중앙로121번길 66</t>
-  </si>
-  <si>
-    <t>중구 대둔산로 286</t>
-  </si>
-  <si>
-    <t>중구 대둔산로 275</t>
-  </si>
-  <si>
-    <t>중구 중교로 32</t>
-  </si>
-  <si>
     <t>중구 태평로 116</t>
   </si>
   <si>
     <t>부여군 규암면 자온로 74</t>
   </si>
   <si>
-    <t>중구 대흥로121번길 28</t>
-  </si>
-  <si>
-    <t>중구 대흥로24번길 23</t>
-  </si>
-  <si>
     <t>중구 선화서로 36</t>
   </si>
   <si>
@@ -637,48 +595,6 @@
   </si>
   <si>
     <t>중구 중교로 62</t>
-  </si>
-  <si>
-    <t>중구 동서대로1322번길 36</t>
-  </si>
-  <si>
-    <t>중구 충무로92번길 2</t>
-  </si>
-  <si>
-    <t>중구 선화로 130</t>
-  </si>
-  <si>
-    <t>중구 계백로1565번길 25-2</t>
-  </si>
-  <si>
-    <t>중구 대둔산로364번길 9</t>
-  </si>
-  <si>
-    <t>중구 대둔산로 364</t>
-  </si>
-  <si>
-    <t>중구 계백로 1576</t>
-  </si>
-  <si>
-    <t>중구 보문로 241-1</t>
-  </si>
-  <si>
-    <t>중구 목척3길 42</t>
-  </si>
-  <si>
-    <t>중구 대종로 480</t>
-  </si>
-  <si>
-    <t>중구 선화서로 48-1</t>
-  </si>
-  <si>
-    <t>중구 중앙로 64</t>
-  </si>
-  <si>
-    <t>중구 중앙로16번길 28</t>
-  </si>
-  <si>
-    <t>서구 둔산남로203번길 4</t>
   </si>
   <si>
     <t>도시 경쟁력 강화를 위한 평생학습도시 조성 노고직원 격려</t>
@@ -1089,6 +1005,3154 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대흥로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 131</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중교로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동서대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1322</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 43</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계룡로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 922</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탑골로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대흥로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 42</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중교로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 40</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 37</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 중구 중앙로 100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정읍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>북남산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20-5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>138</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 48</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중교로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대흥로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 40</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 66</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대둔산로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 286</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대둔산로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 275</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중교로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 32</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태평로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 116</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대흥로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>121</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 28</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대흥로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 23</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선화서로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 36</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대흥로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 131</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동서대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1322</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 36</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충무로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>92</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선화로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 130</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계백로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1561</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계백로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1565</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25-2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목중로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27-17</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뿌리공원로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 45</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충무로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 127</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계룡로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 814</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대둔산로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>364</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대둔산로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 364</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계백로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1576</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대흥로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 40</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보문로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 241-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목척</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 42</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대종로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 480</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대종로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 455</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선화서로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 48-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 중구 중앙로 100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 64</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 28</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>충무로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 127</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>둔산남로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>203</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번길</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +4160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1159,6 +4223,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1602,8 +4673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="R90" sqref="R90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1685,10 +4756,10 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>324</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="J2" s="12">
         <v>9</v>
@@ -1703,7 +4774,7 @@
         <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="53.25" thickBot="1">
@@ -1729,10 +4800,10 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="J3" s="12">
         <v>3</v>
@@ -1747,7 +4818,7 @@
         <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="27.75" thickBot="1">
@@ -1773,10 +4844,10 @@
         <v>24</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="J4" s="12">
         <v>2</v>
@@ -1785,13 +4856,13 @@
         <v>100000</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="27.75" thickBot="1">
@@ -1817,10 +4888,10 @@
         <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="J5" s="12">
         <v>3</v>
@@ -1835,7 +4906,7 @@
         <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="27.75" thickBot="1">
@@ -1861,10 +4932,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="J6" s="12">
         <v>80</v>
@@ -1879,7 +4950,7 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="40.5" thickBot="1">
@@ -1905,10 +4976,10 @@
         <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>132</v>
+        <v>328</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="J7" s="12">
         <v>80</v>
@@ -1923,7 +4994,7 @@
         <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="40.5" thickBot="1">
@@ -1949,10 +5020,10 @@
         <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="J8" s="12">
         <v>3</v>
@@ -1967,7 +5038,7 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="27.75" thickBot="1">
@@ -1993,10 +5064,10 @@
         <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="J9" s="12">
         <v>13</v>
@@ -2011,7 +5082,7 @@
         <v>15</v>
       </c>
       <c r="N9" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="27.75" thickBot="1">
@@ -2037,10 +5108,10 @@
         <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>331</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="J10" s="12">
         <v>15</v>
@@ -2055,7 +5126,7 @@
         <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" thickBot="1">
@@ -2081,10 +5152,10 @@
         <v>24</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="J11" s="12">
         <v>1</v>
@@ -2093,13 +5164,13 @@
         <v>50000</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="27.75" thickBot="1">
@@ -2125,10 +5196,10 @@
         <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="J12" s="12">
         <v>3</v>
@@ -2143,7 +5214,7 @@
         <v>15</v>
       </c>
       <c r="N12" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="27.75" thickBot="1">
@@ -2169,10 +5240,10 @@
         <v>32</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="J13" s="12">
         <v>7</v>
@@ -2187,7 +5258,7 @@
         <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="27.75" thickBot="1">
@@ -2213,10 +5284,10 @@
         <v>23</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>129</v>
+        <v>335</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="J14" s="12">
         <v>3</v>
@@ -2231,7 +5302,7 @@
         <v>15</v>
       </c>
       <c r="N14" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="27.75" thickBot="1">
@@ -2257,10 +5328,10 @@
         <v>33</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="J15" s="12">
         <v>9</v>
@@ -2275,7 +5346,7 @@
         <v>15</v>
       </c>
       <c r="N15" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="40.5" thickBot="1">
@@ -2301,10 +5372,10 @@
         <v>34</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="J16" s="12">
         <v>15</v>
@@ -2319,7 +5390,7 @@
         <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="27.75" thickBot="1">
@@ -2345,10 +5416,10 @@
         <v>35</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="J17" s="12">
         <v>5</v>
@@ -2363,7 +5434,7 @@
         <v>15</v>
       </c>
       <c r="N17" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="27.75" thickBot="1">
@@ -2389,10 +5460,10 @@
         <v>24</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="J18" s="12">
         <v>3</v>
@@ -2401,13 +5472,13 @@
         <v>150000</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="27.75" thickBot="1">
@@ -2433,10 +5504,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="J19" s="12">
         <v>4</v>
@@ -2451,7 +5522,7 @@
         <v>15</v>
       </c>
       <c r="N19" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" thickBot="1">
@@ -2477,13 +5548,13 @@
         <v>37</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>142</v>
+        <v>340</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K20" s="12">
         <v>104400</v>
@@ -2495,7 +5566,7 @@
         <v>15</v>
       </c>
       <c r="N20" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17.25" thickBot="1">
@@ -2521,10 +5592,10 @@
         <v>24</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="J21" s="12">
         <v>1</v>
@@ -2533,13 +5604,13 @@
         <v>50000</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M21" t="s">
         <v>15</v>
       </c>
       <c r="N21" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="27.75" thickBot="1">
@@ -2565,10 +5636,10 @@
         <v>38</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>143</v>
+        <v>341</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="J22" s="12">
         <v>5</v>
@@ -2583,7 +5654,7 @@
         <v>15</v>
       </c>
       <c r="N22" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="27.75" thickBot="1">
@@ -2609,10 +5680,10 @@
         <v>39</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="J23" s="12">
         <v>10</v>
@@ -2627,7 +5698,7 @@
         <v>15</v>
       </c>
       <c r="N23" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="27.75" thickBot="1">
@@ -2653,10 +5724,10 @@
         <v>40</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="J24" s="12">
         <v>7</v>
@@ -2671,7 +5742,7 @@
         <v>15</v>
       </c>
       <c r="N24" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="27.75" thickBot="1">
@@ -2697,10 +5768,10 @@
         <v>41</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>145</v>
+        <v>342</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="J25" s="12">
         <v>11</v>
@@ -2715,7 +5786,7 @@
         <v>15</v>
       </c>
       <c r="N25" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="27.75" thickBot="1">
@@ -2741,10 +5812,10 @@
         <v>42</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>146</v>
+        <v>343</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="J26" s="12">
         <v>13</v>
@@ -2759,7 +5830,7 @@
         <v>15</v>
       </c>
       <c r="N26" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="40.5" thickBot="1">
@@ -2785,10 +5856,10 @@
         <v>43</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>147</v>
+        <v>344</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="J27" s="12">
         <v>9</v>
@@ -2803,7 +5874,7 @@
         <v>15</v>
       </c>
       <c r="N27" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="27.75" thickBot="1">
@@ -2829,10 +5900,10 @@
         <v>24</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="J28" s="12">
         <v>2</v>
@@ -2841,13 +5912,13 @@
         <v>100000</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M28" t="s">
         <v>15</v>
       </c>
       <c r="N28" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="27.75" thickBot="1">
@@ -2873,10 +5944,10 @@
         <v>44</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>128</v>
+        <v>345</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="J29" s="12">
         <v>11</v>
@@ -2891,7 +5962,7 @@
         <v>15</v>
       </c>
       <c r="N29" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="27.75" thickBot="1">
@@ -2917,10 +5988,10 @@
         <v>45</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="J30" s="12">
         <v>16</v>
@@ -2935,7 +6006,7 @@
         <v>14</v>
       </c>
       <c r="N30" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="27.75" thickBot="1">
@@ -2961,10 +6032,10 @@
         <v>46</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="J31" s="12">
         <v>5</v>
@@ -2979,7 +6050,7 @@
         <v>14</v>
       </c>
       <c r="N31" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="27.75" thickBot="1">
@@ -3005,10 +6076,10 @@
         <v>47</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="J32" s="12">
         <v>5</v>
@@ -3023,7 +6094,7 @@
         <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="27.75" thickBot="1">
@@ -3049,10 +6120,10 @@
         <v>48</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="J33" s="12">
         <v>8</v>
@@ -3067,7 +6138,7 @@
         <v>14</v>
       </c>
       <c r="N33" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="27.75" thickBot="1">
@@ -3093,10 +6164,10 @@
         <v>12</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="J34" s="12">
         <v>11</v>
@@ -3111,7 +6182,7 @@
         <v>15</v>
       </c>
       <c r="N34" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="27.75" thickBot="1">
@@ -3137,10 +6208,10 @@
         <v>47</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="J35" s="12">
         <v>6</v>
@@ -3155,7 +6226,7 @@
         <v>14</v>
       </c>
       <c r="N35" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17.25" thickBot="1">
@@ -3181,13 +6252,13 @@
         <v>49</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K36" s="12">
         <v>218500</v>
@@ -3199,7 +6270,7 @@
         <v>15</v>
       </c>
       <c r="N36" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="27.75" thickBot="1">
@@ -3225,10 +6296,10 @@
         <v>50</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="J37" s="12">
         <v>16</v>
@@ -3243,7 +6314,7 @@
         <v>15</v>
       </c>
       <c r="N37" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="40.5" thickBot="1">
@@ -3269,10 +6340,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="J38" s="12">
         <v>19</v>
@@ -3287,7 +6358,7 @@
         <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="27.75" thickBot="1">
@@ -3313,10 +6384,10 @@
         <v>51</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="J39" s="12">
         <v>3</v>
@@ -3331,7 +6402,7 @@
         <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="40.5" thickBot="1">
@@ -3357,10 +6428,10 @@
         <v>52</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="J40" s="12">
         <v>6</v>
@@ -3375,7 +6446,7 @@
         <v>15</v>
       </c>
       <c r="N40" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="40.5" thickBot="1">
@@ -3401,10 +6472,10 @@
         <v>24</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="J41" s="12">
         <v>3</v>
@@ -3413,13 +6484,13 @@
         <v>150000</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="40.5" thickBot="1">
@@ -3445,10 +6516,10 @@
         <v>53</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="J42" s="12">
         <v>3</v>
@@ -3463,7 +6534,7 @@
         <v>15</v>
       </c>
       <c r="N42" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="27.75" thickBot="1">
@@ -3489,10 +6560,10 @@
         <v>54</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="J43" s="12">
         <v>113</v>
@@ -3507,7 +6578,7 @@
         <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="27.75" thickBot="1">
@@ -3533,10 +6604,10 @@
         <v>55</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="J44" s="12">
         <v>20</v>
@@ -3551,7 +6622,7 @@
         <v>15</v>
       </c>
       <c r="N44" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="27.75" thickBot="1">
@@ -3577,10 +6648,10 @@
         <v>56</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="J45" s="12">
         <v>4</v>
@@ -3595,7 +6666,7 @@
         <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="27.75" thickBot="1">
@@ -3621,10 +6692,10 @@
         <v>57</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="J46" s="12">
         <v>14</v>
@@ -3639,7 +6710,7 @@
         <v>15</v>
       </c>
       <c r="N46" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="40.5" thickBot="1">
@@ -3665,10 +6736,10 @@
         <v>58</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="J47" s="12">
         <v>3</v>
@@ -3683,7 +6754,7 @@
         <v>15</v>
       </c>
       <c r="N47" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="53.25" thickBot="1">
@@ -3709,10 +6780,10 @@
         <v>59</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="J48" s="12">
         <v>6</v>
@@ -3727,7 +6798,7 @@
         <v>15</v>
       </c>
       <c r="N48" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="27.75" thickBot="1">
@@ -3753,10 +6824,10 @@
         <v>24</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="J49" s="12">
         <v>2</v>
@@ -3765,13 +6836,13 @@
         <v>100000</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s">
         <v>15</v>
       </c>
       <c r="N49" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="27.75" thickBot="1">
@@ -3797,10 +6868,10 @@
         <v>38</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="J50" s="12">
         <v>3</v>
@@ -3815,7 +6886,7 @@
         <v>14</v>
       </c>
       <c r="N50" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="27.75" thickBot="1">
@@ -3841,10 +6912,10 @@
         <v>60</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="J51" s="12">
         <v>9</v>
@@ -3859,7 +6930,7 @@
         <v>15</v>
       </c>
       <c r="N51" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="40.5" thickBot="1">
@@ -3885,10 +6956,10 @@
         <v>61</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="J52" s="12">
         <v>20</v>
@@ -3903,7 +6974,7 @@
         <v>15</v>
       </c>
       <c r="N52" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="27.75" thickBot="1">
@@ -3929,10 +7000,10 @@
         <v>62</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="J53" s="12">
         <v>4</v>
@@ -3947,7 +7018,7 @@
         <v>14</v>
       </c>
       <c r="N53" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="27.75" thickBot="1">
@@ -3973,10 +7044,10 @@
         <v>63</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="J54" s="12">
         <v>3</v>
@@ -3991,7 +7062,7 @@
         <v>14</v>
       </c>
       <c r="N54" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="40.5" thickBot="1">
@@ -4017,10 +7088,10 @@
         <v>64</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="J55" s="12">
         <v>3</v>
@@ -4035,7 +7106,7 @@
         <v>15</v>
       </c>
       <c r="N55" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="27.75" thickBot="1">
@@ -4061,10 +7132,10 @@
         <v>65</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="J56" s="12">
         <v>9</v>
@@ -4079,7 +7150,7 @@
         <v>15</v>
       </c>
       <c r="N56" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="27.75" thickBot="1">
@@ -4105,10 +7176,10 @@
         <v>47</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="J57" s="12">
         <v>13</v>
@@ -4123,7 +7194,7 @@
         <v>14</v>
       </c>
       <c r="N57" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="27.75" thickBot="1">
@@ -4149,10 +7220,10 @@
         <v>66</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="J58" s="12">
         <v>23</v>
@@ -4167,7 +7238,7 @@
         <v>15</v>
       </c>
       <c r="N58" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="40.5" thickBot="1">
@@ -4193,10 +7264,10 @@
         <v>47</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="J59" s="12">
         <v>6</v>
@@ -4211,7 +7282,7 @@
         <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="27.75" thickBot="1">
@@ -4237,10 +7308,10 @@
         <v>24</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="J60" s="12">
         <v>2</v>
@@ -4249,13 +7320,13 @@
         <v>100000</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="27.75" thickBot="1">
@@ -4281,10 +7352,10 @@
         <v>67</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="J61" s="12">
         <v>17</v>
@@ -4299,7 +7370,7 @@
         <v>14</v>
       </c>
       <c r="N61" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="27.75" thickBot="1">
@@ -4325,10 +7396,10 @@
         <v>68</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="J62" s="12">
         <v>5</v>
@@ -4343,7 +7414,7 @@
         <v>14</v>
       </c>
       <c r="N62" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="40.5" thickBot="1">
@@ -4369,10 +7440,10 @@
         <v>69</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="J63" s="12">
         <v>3</v>
@@ -4387,7 +7458,7 @@
         <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="27.75" thickBot="1">
@@ -4413,10 +7484,10 @@
         <v>70</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="J64" s="12">
         <v>15</v>
@@ -4431,7 +7502,7 @@
         <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="27.75" thickBot="1">
@@ -4457,10 +7528,10 @@
         <v>71</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="J65" s="12">
         <v>8</v>
@@ -4475,7 +7546,7 @@
         <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17.25" thickBot="1">
@@ -4501,13 +7572,13 @@
         <v>72</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K66" s="12">
         <v>72010</v>
@@ -4519,7 +7590,7 @@
         <v>14</v>
       </c>
       <c r="N66" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="27.75" thickBot="1">
@@ -4545,10 +7616,10 @@
         <v>73</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="J67" s="12">
         <v>7</v>
@@ -4563,7 +7634,7 @@
         <v>14</v>
       </c>
       <c r="N67" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="27.75" thickBot="1">
@@ -4589,10 +7660,10 @@
         <v>74</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="J68" s="12">
         <v>6</v>
@@ -4607,7 +7678,7 @@
         <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="27.75" thickBot="1">
@@ -4633,10 +7704,10 @@
         <v>75</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="J69" s="12">
         <v>10</v>
@@ -4651,7 +7722,7 @@
         <v>14</v>
       </c>
       <c r="N69" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="27.75" thickBot="1">
@@ -4677,10 +7748,10 @@
         <v>76</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="J70" s="12">
         <v>14</v>
@@ -4695,7 +7766,7 @@
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="17.25" thickBot="1">
@@ -4721,13 +7792,13 @@
         <v>12</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K71" s="12">
         <v>64000</v>
@@ -4739,7 +7810,7 @@
         <v>14</v>
       </c>
       <c r="N71" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="53.25" thickBot="1">
@@ -4765,10 +7836,10 @@
         <v>77</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="J72" s="12">
         <v>11</v>
@@ -4783,7 +7854,7 @@
         <v>14</v>
       </c>
       <c r="N72" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="27.75" thickBot="1">
@@ -4809,10 +7880,10 @@
         <v>78</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="J73" s="12">
         <v>7</v>
@@ -4827,7 +7898,7 @@
         <v>14</v>
       </c>
       <c r="N73" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="27.75" thickBot="1">
@@ -4853,10 +7924,10 @@
         <v>79</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="J74" s="12">
         <v>28</v>
@@ -4871,7 +7942,7 @@
         <v>14</v>
       </c>
       <c r="N74" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="40.5" thickBot="1">
@@ -4897,10 +7968,10 @@
         <v>80</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="J75" s="12">
         <v>19</v>
@@ -4915,7 +7986,7 @@
         <v>14</v>
       </c>
       <c r="N75" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="53.25" thickBot="1">
@@ -4941,10 +8012,10 @@
         <v>81</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="J76" s="12">
         <v>11</v>
@@ -4959,7 +8030,7 @@
         <v>14</v>
       </c>
       <c r="N76" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17.25" thickBot="1">
@@ -4985,10 +8056,10 @@
         <v>24</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="J77" s="12">
         <v>1</v>
@@ -4997,13 +8068,13 @@
         <v>50000</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M77" t="s">
         <v>14</v>
       </c>
       <c r="N77" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="27.75" thickBot="1">
@@ -5029,10 +8100,10 @@
         <v>82</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="J78" s="12">
         <v>10</v>
@@ -5047,7 +8118,7 @@
         <v>14</v>
       </c>
       <c r="N78" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="27.75" thickBot="1">
@@ -5073,10 +8144,10 @@
         <v>83</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="J79" s="12">
         <v>6</v>
@@ -5091,7 +8162,7 @@
         <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="27.75" thickBot="1">
@@ -5117,10 +8188,10 @@
         <v>84</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="J80" s="12">
         <v>10</v>
@@ -5135,7 +8206,7 @@
         <v>14</v>
       </c>
       <c r="N80" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="27.75" thickBot="1">
@@ -5161,10 +8232,10 @@
         <v>50</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="J81" s="12">
         <v>5</v>
@@ -5179,7 +8250,7 @@
         <v>14</v>
       </c>
       <c r="N81" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="27.75" thickBot="1">
@@ -5205,10 +8276,10 @@
         <v>85</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="J82" s="12">
         <v>10</v>
@@ -5223,7 +8294,7 @@
         <v>14</v>
       </c>
       <c r="N82" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="27.75" thickBot="1">
@@ -5249,10 +8320,10 @@
         <v>86</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="J83" s="12">
         <v>9</v>
@@ -5267,7 +8338,7 @@
         <v>14</v>
       </c>
       <c r="N83" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="27.75" thickBot="1">
@@ -5293,10 +8364,10 @@
         <v>87</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="J84" s="12">
         <v>6</v>
@@ -5311,7 +8382,7 @@
         <v>14</v>
       </c>
       <c r="N84" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17.25" thickBot="1">
@@ -5337,10 +8408,10 @@
         <v>24</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="J85" s="12">
         <v>1</v>
@@ -5349,13 +8420,13 @@
         <v>50000</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M85" t="s">
         <v>14</v>
       </c>
       <c r="N85" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="27.75" thickBot="1">
@@ -5381,10 +8452,10 @@
         <v>88</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="J86" s="12">
         <v>3</v>
@@ -5399,7 +8470,7 @@
         <v>14</v>
       </c>
       <c r="N86" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="27.75" thickBot="1">
@@ -5425,10 +8496,10 @@
         <v>89</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="J87" s="12">
         <v>6</v>
@@ -5443,7 +8514,7 @@
         <v>14</v>
       </c>
       <c r="N87" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17.25" thickBot="1">
@@ -5469,10 +8540,10 @@
         <v>24</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="J88" s="12">
         <v>1</v>
@@ -5481,13 +8552,13 @@
         <v>50000</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
       </c>
       <c r="N88" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="27.75" thickBot="1">
@@ -5513,10 +8584,10 @@
         <v>90</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="J89" s="12">
         <v>6</v>
@@ -5531,7 +8602,7 @@
         <v>14</v>
       </c>
       <c r="N89" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="27.75" thickBot="1">
@@ -5557,10 +8628,10 @@
         <v>91</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="J90" s="12">
         <v>9</v>
@@ -5575,7 +8646,7 @@
         <v>14</v>
       </c>
       <c r="N90" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="27.75" thickBot="1">
@@ -5601,10 +8672,10 @@
         <v>92</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="J91" s="12">
         <v>11</v>
@@ -5619,7 +8690,7 @@
         <v>14</v>
       </c>
       <c r="N91" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="27.75" thickBot="1">
@@ -5645,10 +8716,10 @@
         <v>47</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="J92" s="12">
         <v>16</v>
@@ -5663,7 +8734,7 @@
         <v>14</v>
       </c>
       <c r="N92" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="27.75" thickBot="1">
@@ -5689,10 +8760,10 @@
         <v>93</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="J93" s="12">
         <v>7</v>
@@ -5707,7 +8778,7 @@
         <v>14</v>
       </c>
       <c r="N93" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17.25" thickBot="1">
@@ -5733,10 +8804,10 @@
         <v>24</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="J94" s="12">
         <v>1</v>
@@ -5745,13 +8816,13 @@
         <v>50000</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M94" t="s">
         <v>14</v>
       </c>
       <c r="N94" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="27.75" thickBot="1">
@@ -5777,10 +8848,10 @@
         <v>94</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="J95" s="12">
         <v>4</v>
@@ -5795,7 +8866,7 @@
         <v>14</v>
       </c>
       <c r="N95" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="27.75" thickBot="1">
@@ -5821,10 +8892,10 @@
         <v>28</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="J96" s="12">
         <v>10</v>
@@ -5839,7 +8910,7 @@
         <v>14</v>
       </c>
       <c r="N96" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="27.75" thickBot="1">
@@ -5865,10 +8936,10 @@
         <v>84</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="J97" s="12">
         <v>12</v>
@@ -5883,7 +8954,7 @@
         <v>14</v>
       </c>
       <c r="N97" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="27.75" thickBot="1">
@@ -5909,10 +8980,10 @@
         <v>57</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="J98" s="12">
         <v>11</v>
@@ -5927,7 +8998,7 @@
         <v>14</v>
       </c>
       <c r="N98" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="40.5" thickBot="1">
@@ -5953,10 +9024,10 @@
         <v>95</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="J99" s="12">
         <v>12</v>
@@ -5971,7 +9042,7 @@
         <v>14</v>
       </c>
       <c r="N99" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="27.75" thickBot="1">
@@ -5997,10 +9068,10 @@
         <v>96</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="J100" s="12">
         <v>4</v>
@@ -6015,7 +9086,7 @@
         <v>14</v>
       </c>
       <c r="N100" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="27.75" thickBot="1">
@@ -6041,10 +9112,10 @@
         <v>97</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="J101" s="12">
         <v>5</v>
@@ -6059,7 +9130,7 @@
         <v>14</v>
       </c>
       <c r="N101" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="27.75" thickBot="1">
@@ -6085,10 +9156,10 @@
         <v>47</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="J102" s="12">
         <v>5</v>
@@ -6103,7 +9174,7 @@
         <v>14</v>
       </c>
       <c r="N102" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="27.75" thickBot="1">
@@ -6129,10 +9200,10 @@
         <v>98</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="J103" s="12">
         <v>8</v>
@@ -6147,7 +9218,7 @@
         <v>14</v>
       </c>
       <c r="N103" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="17.25" thickBot="1">
@@ -6173,10 +9244,10 @@
         <v>24</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="J104" s="12">
         <v>1</v>
@@ -6185,13 +9256,13 @@
         <v>50000</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M104" t="s">
         <v>14</v>
       </c>
       <c r="N104" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="27.75" thickBot="1">
@@ -6217,10 +9288,10 @@
         <v>99</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="J105" s="12">
         <v>6</v>
@@ -6235,7 +9306,7 @@
         <v>14</v>
       </c>
       <c r="N105" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="17.25" thickBot="1">
@@ -6261,10 +9332,10 @@
         <v>24</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="J106" s="12">
         <v>1</v>
@@ -6273,13 +9344,13 @@
         <v>50000</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M106" t="s">
         <v>14</v>
       </c>
       <c r="N106" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="27.75" thickBot="1">
@@ -6305,10 +9376,10 @@
         <v>100</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="J107" s="12">
         <v>8</v>
@@ -6323,7 +9394,7 @@
         <v>14</v>
       </c>
       <c r="N107" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="27.75" thickBot="1">
@@ -6349,10 +9420,10 @@
         <v>101</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="J108" s="12">
         <v>36</v>
@@ -6367,7 +9438,7 @@
         <v>14</v>
       </c>
       <c r="N108" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="27.75" thickBot="1">
@@ -6393,10 +9464,10 @@
         <v>102</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="J109" s="12">
         <v>20</v>
@@ -6411,7 +9482,7 @@
         <v>14</v>
       </c>
       <c r="N109" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="53.25" thickBot="1">
@@ -6437,10 +9508,10 @@
         <v>103</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="J110" s="12">
         <v>7</v>
@@ -6455,7 +9526,7 @@
         <v>14</v>
       </c>
       <c r="N110" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="27.75" thickBot="1">
@@ -6481,10 +9552,10 @@
         <v>24</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="J111" s="12">
         <v>2</v>
@@ -6493,13 +9564,13 @@
         <v>100000</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M111" t="s">
         <v>14</v>
       </c>
       <c r="N111" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="40.5" thickBot="1">
@@ -6525,10 +9596,10 @@
         <v>104</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="J112" s="12">
         <v>8</v>
@@ -6543,7 +9614,7 @@
         <v>14</v>
       </c>
       <c r="N112" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="27.75" thickBot="1">
@@ -6569,10 +9640,10 @@
         <v>84</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="J113" s="12">
         <v>20</v>
@@ -6587,7 +9658,7 @@
         <v>14</v>
       </c>
       <c r="N113" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="40.5" thickBot="1">
@@ -6613,10 +9684,10 @@
         <v>24</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="J114" s="12">
         <v>4</v>
@@ -6625,13 +9696,13 @@
         <v>200000</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M114" t="s">
         <v>14</v>
       </c>
       <c r="N114" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="53.25" thickBot="1">
@@ -6657,10 +9728,10 @@
         <v>105</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>203</v>
+        <v>346</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="J115" s="12">
         <v>10</v>
@@ -6675,7 +9746,7 @@
         <v>14</v>
       </c>
       <c r="N115" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="17.25" thickBot="1">
@@ -6701,13 +9772,13 @@
         <v>106</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K116" s="12">
         <v>637800</v>
@@ -6719,7 +9790,7 @@
         <v>14</v>
       </c>
       <c r="N116" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="53.25" thickBot="1">
@@ -6745,10 +9816,10 @@
         <v>107</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>204</v>
+        <v>348</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="J117" s="12">
         <v>9</v>
@@ -6763,7 +9834,7 @@
         <v>14</v>
       </c>
       <c r="N117" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="40.5" thickBot="1">
@@ -6789,10 +9860,10 @@
         <v>108</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>205</v>
+        <v>349</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="J118" s="12">
         <v>12</v>
@@ -6807,7 +9878,7 @@
         <v>14</v>
       </c>
       <c r="N118" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="27.75" thickBot="1">
@@ -6833,10 +9904,10 @@
         <v>97</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>147</v>
+        <v>344</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="J119" s="12">
         <v>6</v>
@@ -6851,7 +9922,7 @@
         <v>14</v>
       </c>
       <c r="N119" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="27.75" thickBot="1">
@@ -6877,10 +9948,10 @@
         <v>77</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>179</v>
+        <v>350</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="J120" s="12">
         <v>7</v>
@@ -6895,7 +9966,7 @@
         <v>14</v>
       </c>
       <c r="N120" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="27.75" thickBot="1">
@@ -6921,10 +9992,10 @@
         <v>108</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>205</v>
+        <v>349</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="J121" s="12">
         <v>12</v>
@@ -6939,7 +10010,7 @@
         <v>14</v>
       </c>
       <c r="N121" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="27.75" thickBot="1">
@@ -6965,10 +10036,10 @@
         <v>109</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>206</v>
+        <v>351</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="J122" s="12">
         <v>8</v>
@@ -6983,7 +10054,7 @@
         <v>14</v>
       </c>
       <c r="N122" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="27.75" thickBot="1">
@@ -7009,10 +10080,10 @@
         <v>46</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="J123" s="12">
         <v>11</v>
@@ -7027,7 +10098,7 @@
         <v>14</v>
       </c>
       <c r="N123" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="27.75" thickBot="1">
@@ -7053,10 +10124,10 @@
         <v>110</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>182</v>
+        <v>353</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="J124" s="12">
         <v>5</v>
@@ -7071,7 +10142,7 @@
         <v>14</v>
       </c>
       <c r="N124" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="27.75" thickBot="1">
@@ -7097,10 +10168,10 @@
         <v>47</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>150</v>
+        <v>354</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="J125" s="12">
         <v>12</v>
@@ -7115,7 +10186,7 @@
         <v>14</v>
       </c>
       <c r="N125" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="27.75" thickBot="1">
@@ -7141,10 +10212,10 @@
         <v>111</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="J126" s="12">
         <v>8</v>
@@ -7159,10 +10230,10 @@
         <v>14</v>
       </c>
       <c r="N126" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="17.25" thickBot="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="27.75" thickBot="1">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -7185,10 +10256,10 @@
         <v>80</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>182</v>
+        <v>353</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="J127" s="12">
         <v>21</v>
@@ -7203,7 +10274,7 @@
         <v>14</v>
       </c>
       <c r="N127" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="27.75" thickBot="1">
@@ -7229,10 +10300,10 @@
         <v>76</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="J128" s="12">
         <v>10</v>
@@ -7247,7 +10318,7 @@
         <v>14</v>
       </c>
       <c r="N128" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="27.75" thickBot="1">
@@ -7273,10 +10344,10 @@
         <v>78</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="J129" s="12">
         <v>12</v>
@@ -7291,7 +10362,7 @@
         <v>14</v>
       </c>
       <c r="N129" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="27.75" thickBot="1">
@@ -7317,10 +10388,10 @@
         <v>112</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>207</v>
+        <v>358</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="J130" s="12">
         <v>64</v>
@@ -7335,7 +10406,7 @@
         <v>14</v>
       </c>
       <c r="N130" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="27.75" thickBot="1">
@@ -7361,10 +10432,10 @@
         <v>113</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="J131" s="12">
         <v>2</v>
@@ -7373,13 +10444,13 @@
         <v>100000</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M131" t="s">
         <v>14</v>
       </c>
       <c r="N131" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="17.25" thickBot="1">
@@ -7405,13 +10476,13 @@
         <v>114</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K132" s="12">
         <v>100000</v>
@@ -7423,7 +10494,7 @@
         <v>14</v>
       </c>
       <c r="N132" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="27.75" thickBot="1">
@@ -7449,10 +10520,10 @@
         <v>115</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>208</v>
+        <v>359</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="J133" s="12">
         <v>7</v>
@@ -7467,7 +10538,7 @@
         <v>14</v>
       </c>
       <c r="N133" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="27.75" thickBot="1">
@@ -7493,10 +10564,10 @@
         <v>116</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>209</v>
+        <v>360</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="J134" s="12">
         <v>13</v>
@@ -7511,7 +10582,7 @@
         <v>14</v>
       </c>
       <c r="N134" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="27.75" thickBot="1">
@@ -7537,10 +10608,10 @@
         <v>117</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>138</v>
+        <v>361</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="J135" s="12">
         <v>7</v>
@@ -7555,7 +10626,7 @@
         <v>14</v>
       </c>
       <c r="N135" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="27.75" thickBot="1">
@@ -7581,10 +10652,10 @@
         <v>47</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="J136" s="12">
         <v>26</v>
@@ -7599,7 +10670,7 @@
         <v>14</v>
       </c>
       <c r="N136" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="40.5" thickBot="1">
@@ -7625,10 +10696,10 @@
         <v>24</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="J137" s="12">
         <v>4</v>
@@ -7637,13 +10708,13 @@
         <v>200000</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M137" t="s">
         <v>14</v>
       </c>
       <c r="N137" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="27.75" thickBot="1">
@@ -7669,10 +10740,10 @@
         <v>118</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>211</v>
+        <v>363</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="J138" s="12">
         <v>10</v>
@@ -7687,7 +10758,7 @@
         <v>14</v>
       </c>
       <c r="N138" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="17.25" thickBot="1">
@@ -7713,10 +10784,10 @@
         <v>24</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="J139" s="12">
         <v>1</v>
@@ -7725,13 +10796,13 @@
         <v>50000</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M139" t="s">
         <v>14</v>
       </c>
       <c r="N139" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="17.25" thickBot="1">
@@ -7757,25 +10828,25 @@
         <v>119</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K140" s="12">
         <v>1000000</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="M140" t="s">
         <v>14</v>
       </c>
       <c r="N140" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="17.25" thickBot="1">
@@ -7801,13 +10872,13 @@
         <v>120</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K141" s="12">
         <v>325600</v>
@@ -7819,7 +10890,7 @@
         <v>14</v>
       </c>
       <c r="N141" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="27.75" thickBot="1">
@@ -7845,10 +10916,10 @@
         <v>121</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>191</v>
+        <v>365</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="J142" s="12">
         <v>16</v>
@@ -7863,7 +10934,7 @@
         <v>14</v>
       </c>
       <c r="N142" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="27.75" thickBot="1">
@@ -7889,10 +10960,10 @@
         <v>122</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>213</v>
+        <v>366</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="J143" s="12">
         <v>8</v>
@@ -7907,7 +10978,7 @@
         <v>14</v>
       </c>
       <c r="N143" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="27.75" thickBot="1">
@@ -7933,10 +11004,10 @@
         <v>123</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="J144" s="12">
         <v>271</v>
@@ -7945,13 +11016,13 @@
         <v>4046000</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="M144" t="s">
         <v>14</v>
       </c>
       <c r="N144" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="27.75" thickBot="1">
@@ -7977,10 +11048,10 @@
         <v>124</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>214</v>
+        <v>368</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="J145" s="12">
         <v>50</v>
@@ -7995,7 +11066,7 @@
         <v>14</v>
       </c>
       <c r="N145" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="27.75" thickBot="1">
@@ -8021,10 +11092,10 @@
         <v>124</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>214</v>
+        <v>368</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="J146" s="12">
         <v>16</v>
@@ -8039,7 +11110,7 @@
         <v>14</v>
       </c>
       <c r="N146" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="27.75" thickBot="1">
@@ -8065,10 +11136,10 @@
         <v>125</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>215</v>
+        <v>369</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="J147" s="12">
         <v>9</v>
@@ -8083,7 +11154,7 @@
         <v>14</v>
       </c>
       <c r="N147" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="27.75" thickBot="1">
@@ -8109,10 +11180,10 @@
         <v>108</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>205</v>
+        <v>349</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="J148" s="12">
         <v>5</v>
@@ -8127,7 +11198,7 @@
         <v>14</v>
       </c>
       <c r="N148" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="27.75" thickBot="1">
@@ -8153,10 +11224,10 @@
         <v>76</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>178</v>
+        <v>370</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="J149" s="12">
         <v>12</v>
@@ -8171,7 +11242,7 @@
         <v>14</v>
       </c>
       <c r="N149" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="27.75" thickBot="1">
@@ -8197,10 +11268,10 @@
         <v>126</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="J150" s="12">
         <v>5</v>
@@ -8215,7 +11286,7 @@
         <v>14</v>
       </c>
       <c r="N150" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="40.5" thickBot="1">
@@ -8241,10 +11312,10 @@
         <v>127</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>216</v>
+        <v>371</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="J151" s="12">
         <v>8</v>
@@ -8259,7 +11330,7 @@
         <v>14</v>
       </c>
       <c r="N151" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
